--- a/DataTables/Book2.xlsx
+++ b/DataTables/Book2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_UftTests\UftTests\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qc\views\git\data_tables\UftTests\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Action1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -37,13 +37,19 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,12 +377,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -388,11 +402,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataTables/Book2.xlsx
+++ b/DataTables/Book2.xlsx
@@ -36,13 +36,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
-    <t>f</t>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,15 +382,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
